--- a/data/shenakht_poosti.xlsx
+++ b/data/shenakht_poosti.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{613552C1-F406-4B7E-B7B4-5A3C3A959CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -52,9 +56,6 @@
     <t>پاسخنامه</t>
   </si>
   <si>
-    <t>شناسه پاسخ دهنده</t>
-  </si>
-  <si>
     <t>پوست چرب (Oily)</t>
   </si>
   <si>
@@ -91,23 +92,28 @@
     <t>https://survey.porsline.ir/n/k/fNdPyMjx/7NnF5/?review_token=a3409ecd-9244-416c-9a87-5994b60c58b7</t>
   </si>
   <si>
-    <t>7NnF5</t>
+    <t>جنسیت</t>
+  </si>
+  <si>
+    <t>زن</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -119,7 +125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="ffdf66"/>
+        <fgColor rgb="FFFFDF66"/>
       </patternFill>
     </fill>
   </fills>
@@ -478,17 +484,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="22.5" customWidth="1"/>
+    <col min="1" max="14" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,48 +537,48 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -578,6 +586,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>